--- a/natmiOut/OldD2/LR-pairs_lrc2p/Serpinf1-Plxdc1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Serpinf1-Plxdc1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.02037941371794</v>
+        <v>4.398556</v>
       </c>
       <c r="H2">
-        <v>4.02037941371794</v>
+        <v>8.797112</v>
       </c>
       <c r="I2">
-        <v>0.01866925957272687</v>
+        <v>0.01861488074046137</v>
       </c>
       <c r="J2">
-        <v>0.01866925957272687</v>
+        <v>0.01298930202922164</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.390833590924577</v>
+        <v>0.418834</v>
       </c>
       <c r="N2">
-        <v>0.390833590924577</v>
+        <v>0.837668</v>
       </c>
       <c r="O2">
-        <v>0.02075798345876022</v>
+        <v>0.01999457195576304</v>
       </c>
       <c r="P2">
-        <v>0.02075798345876022</v>
+        <v>0.01522668255862029</v>
       </c>
       <c r="Q2">
-        <v>1.571299323142628</v>
+        <v>1.842264803704</v>
       </c>
       <c r="R2">
-        <v>1.571299323142628</v>
+        <v>7.369059214816</v>
       </c>
       <c r="S2">
-        <v>0.0003875361813979653</v>
+        <v>0.0003721965724131024</v>
       </c>
       <c r="T2">
-        <v>0.0003875361813979653</v>
+        <v>0.0001977839786570002</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.02037941371794</v>
+        <v>4.398556</v>
       </c>
       <c r="H3">
-        <v>4.02037941371794</v>
+        <v>8.797112</v>
       </c>
       <c r="I3">
-        <v>0.01866925957272687</v>
+        <v>0.01861488074046137</v>
       </c>
       <c r="J3">
-        <v>0.01866925957272687</v>
+        <v>0.01298930202922164</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>3.56998145580081</v>
+        <v>0.1585713333333333</v>
       </c>
       <c r="N3">
-        <v>3.56998145580081</v>
+        <v>0.475714</v>
       </c>
       <c r="O3">
-        <v>0.1896091270770399</v>
+        <v>0.007569982223159101</v>
       </c>
       <c r="P3">
-        <v>0.1896091270770399</v>
+        <v>0.008647275611210516</v>
       </c>
       <c r="Q3">
-        <v>14.35267995225638</v>
+        <v>0.6974848896613333</v>
       </c>
       <c r="R3">
-        <v>14.35267995225638</v>
+        <v>4.184909337968</v>
       </c>
       <c r="S3">
-        <v>0.003539862010759413</v>
+        <v>0.0001409143162915193</v>
       </c>
       <c r="T3">
-        <v>0.003539862010759413</v>
+        <v>0.0001123220746439355</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.02037941371794</v>
+        <v>4.398556</v>
       </c>
       <c r="H4">
-        <v>4.02037941371794</v>
+        <v>8.797112</v>
       </c>
       <c r="I4">
-        <v>0.01866925957272687</v>
+        <v>0.01861488074046137</v>
       </c>
       <c r="J4">
-        <v>0.01866925957272687</v>
+        <v>0.01298930202922164</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.05524214344213</v>
+        <v>4.350429333333333</v>
       </c>
       <c r="N4">
-        <v>6.05524214344213</v>
+        <v>13.051288</v>
       </c>
       <c r="O4">
-        <v>0.3216064820708209</v>
+        <v>0.2076836463701504</v>
       </c>
       <c r="P4">
-        <v>0.3216064820708209</v>
+        <v>0.2372393589788917</v>
       </c>
       <c r="Q4">
-        <v>24.34437085857203</v>
+        <v>19.13560704670934</v>
       </c>
       <c r="R4">
-        <v>24.34437085857203</v>
+        <v>114.813642280256</v>
       </c>
       <c r="S4">
-        <v>0.006004154894051686</v>
+        <v>0.003866006308924502</v>
       </c>
       <c r="T4">
-        <v>0.006004154894051686</v>
+        <v>0.003081573686995758</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.02037941371794</v>
+        <v>4.398556</v>
       </c>
       <c r="H5">
-        <v>4.02037941371794</v>
+        <v>8.797112</v>
       </c>
       <c r="I5">
-        <v>0.01866925957272687</v>
+        <v>0.01861488074046137</v>
       </c>
       <c r="J5">
-        <v>0.01866925957272687</v>
+        <v>0.01298930202922164</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.76586975931884</v>
+        <v>6.252512</v>
       </c>
       <c r="N5">
-        <v>1.76586975931884</v>
+        <v>18.757536</v>
       </c>
       <c r="O5">
-        <v>0.09378900919839109</v>
+        <v>0.2984865151546242</v>
       </c>
       <c r="P5">
-        <v>0.09378900919839109</v>
+        <v>0.3409644945896133</v>
       </c>
       <c r="Q5">
-        <v>7.099466427672517</v>
+        <v>27.502024172672</v>
       </c>
       <c r="R5">
-        <v>7.099466427672517</v>
+        <v>165.012145036032</v>
       </c>
       <c r="S5">
-        <v>0.001750971357793632</v>
+        <v>0.005556290882239245</v>
       </c>
       <c r="T5">
-        <v>0.001750971357793632</v>
+        <v>0.004428890801465394</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.02037941371794</v>
+        <v>4.398556</v>
       </c>
       <c r="H6">
-        <v>4.02037941371794</v>
+        <v>8.797112</v>
       </c>
       <c r="I6">
-        <v>0.01866925957272687</v>
+        <v>0.01861488074046137</v>
       </c>
       <c r="J6">
-        <v>0.01866925957272687</v>
+        <v>0.01298930202922164</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.04618280891306</v>
+        <v>2.356882</v>
       </c>
       <c r="N6">
-        <v>7.04618280891306</v>
+        <v>7.070646</v>
       </c>
       <c r="O6">
-        <v>0.3742373981949879</v>
+        <v>0.1125143773911447</v>
       </c>
       <c r="P6">
-        <v>0.3742373981949879</v>
+        <v>0.128526435445043</v>
       </c>
       <c r="Q6">
-        <v>28.32832831024731</v>
+        <v>10.366877462392</v>
       </c>
       <c r="R6">
-        <v>28.32832831024731</v>
+        <v>62.201264774352</v>
       </c>
       <c r="S6">
-        <v>0.006986735128724177</v>
+        <v>0.002094441716723422</v>
       </c>
       <c r="T6">
-        <v>0.006986735128724177</v>
+        <v>0.001669468688734921</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>179.657937738089</v>
+        <v>4.398556</v>
       </c>
       <c r="H7">
-        <v>179.657937738089</v>
+        <v>8.797112</v>
       </c>
       <c r="I7">
-        <v>0.8342696867088527</v>
+        <v>0.01861488074046137</v>
       </c>
       <c r="J7">
-        <v>0.8342696867088527</v>
+        <v>0.01298930202922164</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.390833590924577</v>
+        <v>7.410156499999999</v>
       </c>
       <c r="N7">
-        <v>0.390833590924577</v>
+        <v>14.820313</v>
       </c>
       <c r="O7">
-        <v>0.02075798345876022</v>
+        <v>0.3537509069051585</v>
       </c>
       <c r="P7">
-        <v>0.02075798345876022</v>
+        <v>0.2693957528166212</v>
       </c>
       <c r="Q7">
-        <v>70.2163569442814</v>
+        <v>32.593988334014</v>
       </c>
       <c r="R7">
-        <v>70.2163569442814</v>
+        <v>130.375953336056</v>
       </c>
       <c r="S7">
-        <v>0.01731775635684743</v>
+        <v>0.006585030943869578</v>
       </c>
       <c r="T7">
-        <v>0.01731775635684743</v>
+        <v>0.003499262798724628</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>179.657937738089</v>
+        <v>198.3456596666666</v>
       </c>
       <c r="H8">
-        <v>179.657937738089</v>
+        <v>595.036979</v>
       </c>
       <c r="I8">
-        <v>0.8342696867088527</v>
+        <v>0.8394074782913161</v>
       </c>
       <c r="J8">
-        <v>0.8342696867088527</v>
+        <v>0.878596866651989</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.56998145580081</v>
+        <v>0.418834</v>
       </c>
       <c r="N8">
-        <v>3.56998145580081</v>
+        <v>0.837668</v>
       </c>
       <c r="O8">
-        <v>0.1896091270770399</v>
+        <v>0.01999457195576304</v>
       </c>
       <c r="P8">
-        <v>0.1896091270770399</v>
+        <v>0.01522668255862029</v>
       </c>
       <c r="Q8">
-        <v>641.3755061123942</v>
+        <v>83.07390602082866</v>
       </c>
       <c r="R8">
-        <v>641.3755061123942</v>
+        <v>498.443436124972</v>
       </c>
       <c r="S8">
-        <v>0.1581851470437011</v>
+        <v>0.01678359322490132</v>
       </c>
       <c r="T8">
-        <v>0.1581851470437011</v>
+        <v>0.01337811558550827</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>179.657937738089</v>
+        <v>198.3456596666666</v>
       </c>
       <c r="H9">
-        <v>179.657937738089</v>
+        <v>595.036979</v>
       </c>
       <c r="I9">
-        <v>0.8342696867088527</v>
+        <v>0.8394074782913161</v>
       </c>
       <c r="J9">
-        <v>0.8342696867088527</v>
+        <v>0.878596866651989</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>6.05524214344213</v>
+        <v>0.1585713333333333</v>
       </c>
       <c r="N9">
-        <v>6.05524214344213</v>
+        <v>0.475714</v>
       </c>
       <c r="O9">
-        <v>0.3216064820708209</v>
+        <v>0.007569982223159101</v>
       </c>
       <c r="P9">
-        <v>0.3216064820708209</v>
+        <v>0.008647275611210516</v>
       </c>
       <c r="Q9">
-        <v>1087.872315995579</v>
+        <v>31.45193571422288</v>
       </c>
       <c r="R9">
-        <v>1087.872315995579</v>
+        <v>283.067421428006</v>
       </c>
       <c r="S9">
-        <v>0.26830653904076</v>
+        <v>0.006354299688652072</v>
       </c>
       <c r="T9">
-        <v>0.26830653904076</v>
+        <v>0.007597469257085722</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>179.657937738089</v>
+        <v>198.3456596666666</v>
       </c>
       <c r="H10">
-        <v>179.657937738089</v>
+        <v>595.036979</v>
       </c>
       <c r="I10">
-        <v>0.8342696867088527</v>
+        <v>0.8394074782913161</v>
       </c>
       <c r="J10">
-        <v>0.8342696867088527</v>
+        <v>0.878596866651989</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.76586975931884</v>
+        <v>4.350429333333333</v>
       </c>
       <c r="N10">
-        <v>1.76586975931884</v>
+        <v>13.051288</v>
       </c>
       <c r="O10">
-        <v>0.09378900919839109</v>
+        <v>0.2076836463701504</v>
       </c>
       <c r="P10">
-        <v>0.09378900919839109</v>
+        <v>0.2372393589788917</v>
       </c>
       <c r="Q10">
-        <v>317.2525192732784</v>
+        <v>862.8887759532169</v>
       </c>
       <c r="R10">
-        <v>317.2525192732784</v>
+        <v>7765.998983578953</v>
       </c>
       <c r="S10">
-        <v>0.07824532732067543</v>
+        <v>0.1743312058819134</v>
       </c>
       <c r="T10">
-        <v>0.07824532732067543</v>
+        <v>0.2084377574453807</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>179.657937738089</v>
+        <v>198.3456596666666</v>
       </c>
       <c r="H11">
-        <v>179.657937738089</v>
+        <v>595.036979</v>
       </c>
       <c r="I11">
-        <v>0.8342696867088527</v>
+        <v>0.8394074782913161</v>
       </c>
       <c r="J11">
-        <v>0.8342696867088527</v>
+        <v>0.878596866651989</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.04618280891306</v>
+        <v>6.252512</v>
       </c>
       <c r="N11">
-        <v>7.04618280891306</v>
+        <v>18.757536</v>
       </c>
       <c r="O11">
-        <v>0.3742373981949879</v>
+        <v>0.2984865151546242</v>
       </c>
       <c r="P11">
-        <v>0.3742373981949879</v>
+        <v>0.3409644945896133</v>
       </c>
       <c r="Q11">
-        <v>1265.902672374896</v>
+        <v>1240.158617213749</v>
       </c>
       <c r="R11">
-        <v>1265.902672374896</v>
+        <v>11161.42755492374</v>
       </c>
       <c r="S11">
-        <v>0.3122149169468687</v>
+        <v>0.2505518129899058</v>
       </c>
       <c r="T11">
-        <v>0.3122149169468687</v>
+        <v>0.2995703365860133</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.78920300606063</v>
+        <v>198.3456596666666</v>
       </c>
       <c r="H12">
-        <v>0.78920300606063</v>
+        <v>595.036979</v>
       </c>
       <c r="I12">
-        <v>0.00366478738933169</v>
+        <v>0.8394074782913161</v>
       </c>
       <c r="J12">
-        <v>0.00366478738933169</v>
+        <v>0.878596866651989</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.390833590924577</v>
+        <v>2.356882</v>
       </c>
       <c r="N12">
-        <v>0.390833590924577</v>
+        <v>7.070646</v>
       </c>
       <c r="O12">
-        <v>0.02075798345876022</v>
+        <v>0.1125143773911447</v>
       </c>
       <c r="P12">
-        <v>0.02075798345876022</v>
+        <v>0.128526435445043</v>
       </c>
       <c r="Q12">
-        <v>0.3084470448271467</v>
+        <v>467.4773150464927</v>
       </c>
       <c r="R12">
-        <v>0.3084470448271467</v>
+        <v>4207.295835418434</v>
       </c>
       <c r="S12">
-        <v>7.607359600762027E-05</v>
+        <v>0.09444540979741825</v>
       </c>
       <c r="T12">
-        <v>7.607359600762027E-05</v>
+        <v>0.1129229234639639</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,55 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.78920300606063</v>
+        <v>198.3456596666666</v>
       </c>
       <c r="H13">
-        <v>0.78920300606063</v>
+        <v>595.036979</v>
       </c>
       <c r="I13">
-        <v>0.00366478738933169</v>
+        <v>0.8394074782913161</v>
       </c>
       <c r="J13">
-        <v>0.00366478738933169</v>
+        <v>0.878596866651989</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.56998145580081</v>
+        <v>7.410156499999999</v>
       </c>
       <c r="N13">
-        <v>3.56998145580081</v>
+        <v>14.820313</v>
       </c>
       <c r="O13">
-        <v>0.1896091270770399</v>
+        <v>0.3537509069051585</v>
       </c>
       <c r="P13">
-        <v>0.1896091270770399</v>
+        <v>0.2693957528166212</v>
       </c>
       <c r="Q13">
-        <v>2.817440096498703</v>
+        <v>1469.772379225737</v>
       </c>
       <c r="R13">
-        <v>2.817440096498703</v>
+        <v>8818.634275354425</v>
       </c>
       <c r="S13">
-        <v>0.0006948771378141257</v>
+        <v>0.2969411567085253</v>
       </c>
       <c r="T13">
-        <v>0.0006948771378141257</v>
+        <v>0.2366902643140371</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.78920300606063</v>
+        <v>1.108348666666667</v>
       </c>
       <c r="H14">
-        <v>0.78920300606063</v>
+        <v>3.325046</v>
       </c>
       <c r="I14">
-        <v>0.00366478738933169</v>
+        <v>0.00469057987413355</v>
       </c>
       <c r="J14">
-        <v>0.00366478738933169</v>
+        <v>0.004909568817022596</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.05524214344213</v>
+        <v>0.418834</v>
       </c>
       <c r="N14">
-        <v>6.05524214344213</v>
+        <v>0.837668</v>
       </c>
       <c r="O14">
-        <v>0.3216064820708209</v>
+        <v>0.01999457195576304</v>
       </c>
       <c r="P14">
-        <v>0.3216064820708209</v>
+        <v>0.01522668255862029</v>
       </c>
       <c r="Q14">
-        <v>4.778815302029542</v>
+        <v>0.4642141054546666</v>
       </c>
       <c r="R14">
-        <v>4.778815302029542</v>
+        <v>2.785284632728</v>
       </c>
       <c r="S14">
-        <v>0.001178619379820473</v>
+        <v>9.37861368076172E-05</v>
       </c>
       <c r="T14">
-        <v>0.001178619379820473</v>
+        <v>7.475644587650399E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.78920300606063</v>
+        <v>1.108348666666667</v>
       </c>
       <c r="H15">
-        <v>0.78920300606063</v>
+        <v>3.325046</v>
       </c>
       <c r="I15">
-        <v>0.00366478738933169</v>
+        <v>0.00469057987413355</v>
       </c>
       <c r="J15">
-        <v>0.00366478738933169</v>
+        <v>0.004909568817022596</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>1.76586975931884</v>
+        <v>0.1585713333333333</v>
       </c>
       <c r="N15">
-        <v>1.76586975931884</v>
+        <v>0.475714</v>
       </c>
       <c r="O15">
-        <v>0.09378900919839109</v>
+        <v>0.007569982223159101</v>
       </c>
       <c r="P15">
-        <v>0.09378900919839109</v>
+        <v>0.008647275611210516</v>
       </c>
       <c r="Q15">
-        <v>1.39362972236599</v>
+        <v>0.1757523258715555</v>
       </c>
       <c r="R15">
-        <v>1.39362972236599</v>
+        <v>1.581770932844</v>
       </c>
       <c r="S15">
-        <v>0.0003437167781681776</v>
+        <v>3.550760626349883E-05</v>
       </c>
       <c r="T15">
-        <v>0.0003437167781681776</v>
+        <v>4.245439469299915E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,122 +1402,122 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.78920300606063</v>
+        <v>1.108348666666667</v>
       </c>
       <c r="H16">
-        <v>0.78920300606063</v>
+        <v>3.325046</v>
       </c>
       <c r="I16">
-        <v>0.00366478738933169</v>
+        <v>0.00469057987413355</v>
       </c>
       <c r="J16">
-        <v>0.00366478738933169</v>
+        <v>0.004909568817022596</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.04618280891306</v>
+        <v>4.350429333333333</v>
       </c>
       <c r="N16">
-        <v>7.04618280891306</v>
+        <v>13.051288</v>
       </c>
       <c r="O16">
-        <v>0.3742373981949879</v>
+        <v>0.2076836463701504</v>
       </c>
       <c r="P16">
-        <v>0.3742373981949879</v>
+        <v>0.2372393589788917</v>
       </c>
       <c r="Q16">
-        <v>5.560868654046921</v>
+        <v>4.821792551027555</v>
       </c>
       <c r="R16">
-        <v>5.560868654046921</v>
+        <v>43.39613295924801</v>
       </c>
       <c r="S16">
-        <v>0.001371500497521294</v>
+        <v>0.0009741567318504967</v>
       </c>
       <c r="T16">
-        <v>0.001371500497521294</v>
+        <v>0.001164742959013196</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.23892418545323</v>
+        <v>1.108348666666667</v>
       </c>
       <c r="H17">
-        <v>2.23892418545323</v>
+        <v>3.325046</v>
       </c>
       <c r="I17">
-        <v>0.01039679405363082</v>
+        <v>0.00469057987413355</v>
       </c>
       <c r="J17">
-        <v>0.01039679405363082</v>
+        <v>0.004909568817022596</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.390833590924577</v>
+        <v>6.252512</v>
       </c>
       <c r="N17">
-        <v>0.390833590924577</v>
+        <v>18.757536</v>
       </c>
       <c r="O17">
-        <v>0.02075798345876022</v>
+        <v>0.2984865151546242</v>
       </c>
       <c r="P17">
-        <v>0.02075798345876022</v>
+        <v>0.3409644945896133</v>
       </c>
       <c r="Q17">
-        <v>0.8750467792085694</v>
+        <v>6.929963338517333</v>
       </c>
       <c r="R17">
-        <v>0.8750467792085694</v>
+        <v>62.369670046656</v>
       </c>
       <c r="S17">
-        <v>0.0002158164789894051</v>
+        <v>0.001400074840684539</v>
       </c>
       <c r="T17">
-        <v>0.0002158164789894051</v>
+        <v>0.001673988650349035</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.23892418545323</v>
+        <v>1.108348666666667</v>
       </c>
       <c r="H18">
-        <v>2.23892418545323</v>
+        <v>3.325046</v>
       </c>
       <c r="I18">
-        <v>0.01039679405363082</v>
+        <v>0.00469057987413355</v>
       </c>
       <c r="J18">
-        <v>0.01039679405363082</v>
+        <v>0.004909568817022596</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.56998145580081</v>
+        <v>2.356882</v>
       </c>
       <c r="N18">
-        <v>3.56998145580081</v>
+        <v>7.070646</v>
       </c>
       <c r="O18">
-        <v>0.1896091270770399</v>
+        <v>0.1125143773911447</v>
       </c>
       <c r="P18">
-        <v>0.1896091270770399</v>
+        <v>0.128526435445043</v>
       </c>
       <c r="Q18">
-        <v>7.992917823011965</v>
+        <v>2.612247022190667</v>
       </c>
       <c r="R18">
-        <v>7.992917823011965</v>
+        <v>23.510223199716</v>
       </c>
       <c r="S18">
-        <v>0.001971327044908698</v>
+        <v>0.0005277576741415703</v>
       </c>
       <c r="T18">
-        <v>0.001971327044908698</v>
+        <v>0.0006310093796240509</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.23892418545323</v>
+        <v>1.108348666666667</v>
       </c>
       <c r="H19">
-        <v>2.23892418545323</v>
+        <v>3.325046</v>
       </c>
       <c r="I19">
-        <v>0.01039679405363082</v>
+        <v>0.00469057987413355</v>
       </c>
       <c r="J19">
-        <v>0.01039679405363082</v>
+        <v>0.004909568817022596</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.05524214344213</v>
+        <v>7.410156499999999</v>
       </c>
       <c r="N19">
-        <v>6.05524214344213</v>
+        <v>14.820313</v>
       </c>
       <c r="O19">
-        <v>0.3216064820708209</v>
+        <v>0.3537509069051585</v>
       </c>
       <c r="P19">
-        <v>0.3216064820708209</v>
+        <v>0.2693957528166212</v>
       </c>
       <c r="Q19">
-        <v>13.55722808372824</v>
+        <v>8.213037076566332</v>
       </c>
       <c r="R19">
-        <v>13.55722808372824</v>
+        <v>49.27822245939799</v>
       </c>
       <c r="S19">
-        <v>0.003343676360403037</v>
+        <v>0.001659296884385828</v>
       </c>
       <c r="T19">
-        <v>0.003343676360403037</v>
+        <v>0.001322616987466811</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,55 +1650,55 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.23892418545323</v>
+        <v>2.24251</v>
       </c>
       <c r="H20">
-        <v>2.23892418545323</v>
+        <v>6.72753</v>
       </c>
       <c r="I20">
-        <v>0.01039679405363082</v>
+        <v>0.009490400078864978</v>
       </c>
       <c r="J20">
-        <v>0.01039679405363082</v>
+        <v>0.009933478064238518</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.76586975931884</v>
+        <v>0.418834</v>
       </c>
       <c r="N20">
-        <v>1.76586975931884</v>
+        <v>0.837668</v>
       </c>
       <c r="O20">
-        <v>0.09378900919839109</v>
+        <v>0.01999457195576304</v>
       </c>
       <c r="P20">
-        <v>0.09378900919839109</v>
+        <v>0.01522668255862029</v>
       </c>
       <c r="Q20">
-        <v>3.953648512499425</v>
+        <v>0.9392394333399998</v>
       </c>
       <c r="R20">
-        <v>3.953648512499425</v>
+        <v>5.635436600039999</v>
       </c>
       <c r="S20">
-        <v>0.0009751050131297585</v>
+        <v>0.000189756487265845</v>
       </c>
       <c r="T20">
-        <v>0.0009751050131297585</v>
+        <v>0.0001512539171871778</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.23892418545323</v>
+        <v>2.24251</v>
       </c>
       <c r="H21">
-        <v>2.23892418545323</v>
+        <v>6.72753</v>
       </c>
       <c r="I21">
-        <v>0.01039679405363082</v>
+        <v>0.009490400078864978</v>
       </c>
       <c r="J21">
-        <v>0.01039679405363082</v>
+        <v>0.009933478064238518</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>7.04618280891306</v>
+        <v>0.1585713333333333</v>
       </c>
       <c r="N21">
-        <v>7.04618280891306</v>
+        <v>0.475714</v>
       </c>
       <c r="O21">
-        <v>0.3742373981949879</v>
+        <v>0.007569982223159101</v>
       </c>
       <c r="P21">
-        <v>0.3742373981949879</v>
+        <v>0.008647275611210516</v>
       </c>
       <c r="Q21">
-        <v>15.77586910600023</v>
+        <v>0.3555978007133332</v>
       </c>
       <c r="R21">
-        <v>15.77586910600023</v>
+        <v>3.20038020642</v>
       </c>
       <c r="S21">
-        <v>0.003890869156199919</v>
+        <v>7.184215988767562E-05</v>
       </c>
       <c r="T21">
-        <v>0.003890869156199919</v>
+        <v>8.589752259938438E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.57105150523816</v>
+        <v>2.24251</v>
       </c>
       <c r="H22">
-        <v>2.57105150523816</v>
+        <v>6.72753</v>
       </c>
       <c r="I22">
-        <v>0.011939079123319</v>
+        <v>0.009490400078864978</v>
       </c>
       <c r="J22">
-        <v>0.011939079123319</v>
+        <v>0.009933478064238518</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.390833590924577</v>
+        <v>4.350429333333333</v>
       </c>
       <c r="N22">
-        <v>0.390833590924577</v>
+        <v>13.051288</v>
       </c>
       <c r="O22">
-        <v>0.02075798345876022</v>
+        <v>0.2076836463701504</v>
       </c>
       <c r="P22">
-        <v>0.02075798345876022</v>
+        <v>0.2372393589788917</v>
       </c>
       <c r="Q22">
-        <v>1.004853292244269</v>
+        <v>9.755881284293332</v>
       </c>
       <c r="R22">
-        <v>1.004853292244269</v>
+        <v>87.80293155864001</v>
       </c>
       <c r="S22">
-        <v>0.0002478312069546853</v>
+        <v>0.001971000893890241</v>
       </c>
       <c r="T22">
-        <v>0.0002478312069546853</v>
+        <v>0.002356611968390828</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.57105150523816</v>
+        <v>2.24251</v>
       </c>
       <c r="H23">
-        <v>2.57105150523816</v>
+        <v>6.72753</v>
       </c>
       <c r="I23">
-        <v>0.011939079123319</v>
+        <v>0.009490400078864978</v>
       </c>
       <c r="J23">
-        <v>0.011939079123319</v>
+        <v>0.009933478064238518</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.56998145580081</v>
+        <v>6.252512</v>
       </c>
       <c r="N23">
-        <v>3.56998145580081</v>
+        <v>18.757536</v>
       </c>
       <c r="O23">
-        <v>0.1896091270770399</v>
+        <v>0.2984865151546242</v>
       </c>
       <c r="P23">
-        <v>0.1896091270770399</v>
+        <v>0.3409644945896133</v>
       </c>
       <c r="Q23">
-        <v>9.178606195608989</v>
+        <v>14.02132068512</v>
       </c>
       <c r="R23">
-        <v>9.178606195608989</v>
+        <v>126.19188616608</v>
       </c>
       <c r="S23">
-        <v>0.002263758370676227</v>
+        <v>0.002832756446963578</v>
       </c>
       <c r="T23">
-        <v>0.002263758370676227</v>
+        <v>0.003386963327690096</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.57105150523816</v>
+        <v>2.24251</v>
       </c>
       <c r="H24">
-        <v>2.57105150523816</v>
+        <v>6.72753</v>
       </c>
       <c r="I24">
-        <v>0.011939079123319</v>
+        <v>0.009490400078864978</v>
       </c>
       <c r="J24">
-        <v>0.011939079123319</v>
+        <v>0.009933478064238518</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.05524214344213</v>
+        <v>2.356882</v>
       </c>
       <c r="N24">
-        <v>6.05524214344213</v>
+        <v>7.070646</v>
       </c>
       <c r="O24">
-        <v>0.3216064820708209</v>
+        <v>0.1125143773911447</v>
       </c>
       <c r="P24">
-        <v>0.3216064820708209</v>
+        <v>0.128526435445043</v>
       </c>
       <c r="Q24">
-        <v>15.56833942747843</v>
+        <v>5.28533145382</v>
       </c>
       <c r="R24">
-        <v>15.56833942747843</v>
+        <v>47.56798308438</v>
       </c>
       <c r="S24">
-        <v>0.003839685236015805</v>
+        <v>0.001067806456066364</v>
       </c>
       <c r="T24">
-        <v>0.003839685236015805</v>
+        <v>0.001276714527168103</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.57105150523816</v>
+        <v>2.24251</v>
       </c>
       <c r="H25">
-        <v>2.57105150523816</v>
+        <v>6.72753</v>
       </c>
       <c r="I25">
-        <v>0.011939079123319</v>
+        <v>0.009490400078864978</v>
       </c>
       <c r="J25">
-        <v>0.011939079123319</v>
+        <v>0.009933478064238518</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.76586975931884</v>
+        <v>7.410156499999999</v>
       </c>
       <c r="N25">
-        <v>1.76586975931884</v>
+        <v>14.820313</v>
       </c>
       <c r="O25">
-        <v>0.09378900919839109</v>
+        <v>0.3537509069051585</v>
       </c>
       <c r="P25">
-        <v>0.09378900919839109</v>
+        <v>0.2693957528166212</v>
       </c>
       <c r="Q25">
-        <v>4.540142102751251</v>
+        <v>16.617350052815</v>
       </c>
       <c r="R25">
-        <v>4.540142102751251</v>
+        <v>99.70410031688999</v>
       </c>
       <c r="S25">
-        <v>0.001119754401717285</v>
+        <v>0.003357237634791274</v>
       </c>
       <c r="T25">
-        <v>0.001119754401717285</v>
+        <v>0.002676036801202929</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,60 +2022,60 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.57105150523816</v>
+        <v>2.976810666666667</v>
       </c>
       <c r="H26">
-        <v>2.57105150523816</v>
+        <v>8.930432</v>
       </c>
       <c r="I26">
-        <v>0.011939079123319</v>
+        <v>0.01259799251093616</v>
       </c>
       <c r="J26">
-        <v>0.011939079123319</v>
+        <v>0.01318615455838528</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>7.04618280891306</v>
+        <v>0.418834</v>
       </c>
       <c r="N26">
-        <v>7.04618280891306</v>
+        <v>0.837668</v>
       </c>
       <c r="O26">
-        <v>0.3742373981949879</v>
+        <v>0.01999457195576304</v>
       </c>
       <c r="P26">
-        <v>0.3742373981949879</v>
+        <v>0.01522668255862029</v>
       </c>
       <c r="Q26">
-        <v>18.11609891703917</v>
+        <v>1.246789518762667</v>
       </c>
       <c r="R26">
-        <v>18.11609891703917</v>
+        <v>7.480737112576</v>
       </c>
       <c r="S26">
-        <v>0.004468049907955001</v>
+        <v>0.0002518914677580769</v>
       </c>
       <c r="T26">
-        <v>0.004468049907955001</v>
+        <v>0.0002007813896294365</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,60 +2084,60 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>26.0700597444406</v>
+        <v>2.976810666666667</v>
       </c>
       <c r="H27">
-        <v>26.0700597444406</v>
+        <v>8.930432</v>
       </c>
       <c r="I27">
-        <v>0.1210603931521388</v>
+        <v>0.01259799251093616</v>
       </c>
       <c r="J27">
-        <v>0.1210603931521388</v>
+        <v>0.01318615455838528</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M27">
-        <v>0.390833590924577</v>
+        <v>0.1585713333333333</v>
       </c>
       <c r="N27">
-        <v>0.390833590924577</v>
+        <v>0.475714</v>
       </c>
       <c r="O27">
-        <v>0.02075798345876022</v>
+        <v>0.007569982223159101</v>
       </c>
       <c r="P27">
-        <v>0.02075798345876022</v>
+        <v>0.008647275611210516</v>
       </c>
       <c r="Q27">
-        <v>10.18905506553798</v>
+        <v>0.4720368364942222</v>
       </c>
       <c r="R27">
-        <v>10.18905506553798</v>
+        <v>4.248331528447999</v>
       </c>
       <c r="S27">
-        <v>0.002512969638563106</v>
+        <v>9.536657935527821E-05</v>
       </c>
       <c r="T27">
-        <v>0.002512969638563106</v>
+        <v>0.0001140243127183774</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2149,57 +2149,57 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>26.0700597444406</v>
+        <v>2.976810666666667</v>
       </c>
       <c r="H28">
-        <v>26.0700597444406</v>
+        <v>8.930432</v>
       </c>
       <c r="I28">
-        <v>0.1210603931521388</v>
+        <v>0.01259799251093616</v>
       </c>
       <c r="J28">
-        <v>0.1210603931521388</v>
+        <v>0.01318615455838528</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>3.56998145580081</v>
+        <v>4.350429333333333</v>
       </c>
       <c r="N28">
-        <v>3.56998145580081</v>
+        <v>13.051288</v>
       </c>
       <c r="O28">
-        <v>0.1896091270770399</v>
+        <v>0.2076836463701504</v>
       </c>
       <c r="P28">
-        <v>0.1896091270770399</v>
+        <v>0.2372393589788917</v>
       </c>
       <c r="Q28">
-        <v>93.06962983927214</v>
+        <v>12.95040444404622</v>
       </c>
       <c r="R28">
-        <v>93.06962983927214</v>
+        <v>116.553639996416</v>
       </c>
       <c r="S28">
-        <v>0.0229541554691803</v>
+        <v>0.002616397021615068</v>
       </c>
       <c r="T28">
-        <v>0.0229541554691803</v>
+        <v>0.003128274854827914</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2211,57 +2211,57 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>26.0700597444406</v>
+        <v>2.976810666666667</v>
       </c>
       <c r="H29">
-        <v>26.0700597444406</v>
+        <v>8.930432</v>
       </c>
       <c r="I29">
-        <v>0.1210603931521388</v>
+        <v>0.01259799251093616</v>
       </c>
       <c r="J29">
-        <v>0.1210603931521388</v>
+        <v>0.01318615455838528</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>6.05524214344213</v>
+        <v>6.252512</v>
       </c>
       <c r="N29">
-        <v>6.05524214344213</v>
+        <v>18.757536</v>
       </c>
       <c r="O29">
-        <v>0.3216064820708209</v>
+        <v>0.2984865151546242</v>
       </c>
       <c r="P29">
-        <v>0.3216064820708209</v>
+        <v>0.3409644945896133</v>
       </c>
       <c r="Q29">
-        <v>157.8605244465909</v>
+        <v>18.61254441506134</v>
       </c>
       <c r="R29">
-        <v>157.8605244465909</v>
+        <v>167.512899735552</v>
       </c>
       <c r="S29">
-        <v>0.03893380715976986</v>
+        <v>0.003760330882533388</v>
       </c>
       <c r="T29">
-        <v>0.03893380715976986</v>
+        <v>0.004496010524580361</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2273,57 +2273,57 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>26.0700597444406</v>
+        <v>2.976810666666667</v>
       </c>
       <c r="H30">
-        <v>26.0700597444406</v>
+        <v>8.930432</v>
       </c>
       <c r="I30">
-        <v>0.1210603931521388</v>
+        <v>0.01259799251093616</v>
       </c>
       <c r="J30">
-        <v>0.1210603931521388</v>
+        <v>0.01318615455838528</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.76586975931884</v>
+        <v>2.356882</v>
       </c>
       <c r="N30">
-        <v>1.76586975931884</v>
+        <v>7.070646</v>
       </c>
       <c r="O30">
-        <v>0.09378900919839109</v>
+        <v>0.1125143773911447</v>
       </c>
       <c r="P30">
-        <v>0.09378900919839109</v>
+        <v>0.128526435445043</v>
       </c>
       <c r="Q30">
-        <v>46.0363301263431</v>
+        <v>7.015991477674667</v>
       </c>
       <c r="R30">
-        <v>46.0363301263431</v>
+        <v>63.143923299072</v>
       </c>
       <c r="S30">
-        <v>0.01135413432690679</v>
+        <v>0.001417455283746286</v>
       </c>
       <c r="T30">
-        <v>0.01135413432690679</v>
+        <v>0.001694769442616665</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2335,52 +2335,424 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>26.0700597444406</v>
+        <v>2.976810666666667</v>
       </c>
       <c r="H31">
-        <v>26.0700597444406</v>
+        <v>8.930432</v>
       </c>
       <c r="I31">
-        <v>0.1210603931521388</v>
+        <v>0.01259799251093616</v>
       </c>
       <c r="J31">
-        <v>0.1210603931521388</v>
+        <v>0.01318615455838528</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>7.04618280891306</v>
+        <v>7.410156499999999</v>
       </c>
       <c r="N31">
-        <v>7.04618280891306</v>
+        <v>14.820313</v>
       </c>
       <c r="O31">
-        <v>0.3742373981949879</v>
+        <v>0.3537509069051585</v>
       </c>
       <c r="P31">
-        <v>0.3742373981949879</v>
+        <v>0.2693957528166212</v>
       </c>
       <c r="Q31">
-        <v>183.6944067986138</v>
+        <v>22.05863291086933</v>
       </c>
       <c r="R31">
-        <v>183.6944067986138</v>
+        <v>132.351797465216</v>
       </c>
       <c r="S31">
-        <v>0.04530532655771876</v>
+        <v>0.004456551275928061</v>
       </c>
       <c r="T31">
-        <v>0.04530532655771876</v>
+        <v>0.003552294034012523</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>27.220577</v>
+      </c>
+      <c r="H32">
+        <v>54.441154</v>
+      </c>
+      <c r="I32">
+        <v>0.1151986685042877</v>
+      </c>
+      <c r="J32">
+        <v>0.08038462987914302</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.418834</v>
+      </c>
+      <c r="N32">
+        <v>0.837668</v>
+      </c>
+      <c r="O32">
+        <v>0.01999457195576304</v>
+      </c>
+      <c r="P32">
+        <v>0.01522668255862029</v>
+      </c>
+      <c r="Q32">
+        <v>11.400903147218</v>
+      </c>
+      <c r="R32">
+        <v>45.603612588872</v>
+      </c>
+      <c r="S32">
+        <v>0.002303348066617074</v>
+      </c>
+      <c r="T32">
+        <v>0.001223991241761894</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>27.220577</v>
+      </c>
+      <c r="H33">
+        <v>54.441154</v>
+      </c>
+      <c r="I33">
+        <v>0.1151986685042877</v>
+      </c>
+      <c r="J33">
+        <v>0.08038462987914302</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M33">
+        <v>0.1585713333333333</v>
+      </c>
+      <c r="N33">
+        <v>0.475714</v>
+      </c>
+      <c r="O33">
+        <v>0.007569982223159101</v>
+      </c>
+      <c r="P33">
+        <v>0.008647275611210516</v>
+      </c>
+      <c r="Q33">
+        <v>4.316403188992666</v>
+      </c>
+      <c r="R33">
+        <v>25.898419133956</v>
+      </c>
+      <c r="S33">
+        <v>0.0008720518727090561</v>
+      </c>
+      <c r="T33">
+        <v>0.0006951080494700976</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>27.220577</v>
+      </c>
+      <c r="H34">
+        <v>54.441154</v>
+      </c>
+      <c r="I34">
+        <v>0.1151986685042877</v>
+      </c>
+      <c r="J34">
+        <v>0.08038462987914302</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>4.350429333333333</v>
+      </c>
+      <c r="N34">
+        <v>13.051288</v>
+      </c>
+      <c r="O34">
+        <v>0.2076836463701504</v>
+      </c>
+      <c r="P34">
+        <v>0.2372393589788917</v>
+      </c>
+      <c r="Q34">
+        <v>118.4211966510587</v>
+      </c>
+      <c r="R34">
+        <v>710.527179906352</v>
+      </c>
+      <c r="S34">
+        <v>0.02392487953195667</v>
+      </c>
+      <c r="T34">
+        <v>0.01907039806428336</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>27.220577</v>
+      </c>
+      <c r="H35">
+        <v>54.441154</v>
+      </c>
+      <c r="I35">
+        <v>0.1151986685042877</v>
+      </c>
+      <c r="J35">
+        <v>0.08038462987914302</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>6.252512</v>
+      </c>
+      <c r="N35">
+        <v>18.757536</v>
+      </c>
+      <c r="O35">
+        <v>0.2984865151546242</v>
+      </c>
+      <c r="P35">
+        <v>0.3409644945896133</v>
+      </c>
+      <c r="Q35">
+        <v>170.196984339424</v>
+      </c>
+      <c r="R35">
+        <v>1021.181906036544</v>
+      </c>
+      <c r="S35">
+        <v>0.0343852491122976</v>
+      </c>
+      <c r="T35">
+        <v>0.02740830469951512</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>27.220577</v>
+      </c>
+      <c r="H36">
+        <v>54.441154</v>
+      </c>
+      <c r="I36">
+        <v>0.1151986685042877</v>
+      </c>
+      <c r="J36">
+        <v>0.08038462987914302</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>2.356882</v>
+      </c>
+      <c r="N36">
+        <v>7.070646</v>
+      </c>
+      <c r="O36">
+        <v>0.1125143773911447</v>
+      </c>
+      <c r="P36">
+        <v>0.128526435445043</v>
+      </c>
+      <c r="Q36">
+        <v>64.15568796091399</v>
+      </c>
+      <c r="R36">
+        <v>384.934127765484</v>
+      </c>
+      <c r="S36">
+        <v>0.0129615064630488</v>
+      </c>
+      <c r="T36">
+        <v>0.01033154994293535</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>27.220577</v>
+      </c>
+      <c r="H37">
+        <v>54.441154</v>
+      </c>
+      <c r="I37">
+        <v>0.1151986685042877</v>
+      </c>
+      <c r="J37">
+        <v>0.08038462987914302</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>7.410156499999999</v>
+      </c>
+      <c r="N37">
+        <v>14.820313</v>
+      </c>
+      <c r="O37">
+        <v>0.3537509069051585</v>
+      </c>
+      <c r="P37">
+        <v>0.2693957528166212</v>
+      </c>
+      <c r="Q37">
+        <v>201.7087355903005</v>
+      </c>
+      <c r="R37">
+        <v>806.8349423612019</v>
+      </c>
+      <c r="S37">
+        <v>0.0407516334576585</v>
+      </c>
+      <c r="T37">
+        <v>0.0216552778811772</v>
       </c>
     </row>
   </sheetData>
